--- a/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
+++ b/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emily.Mangan\Dropbox\India EPS\InputData UPDATE FOR INDIA\land\FoFObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\OneDrive\Desktop\Input Data for India 2.0\land\FoFObE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BBC6E8-B97F-4CCB-9CF9-2680728DCE5E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="19140" windowHeight="9270"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="4" r:id="rId2"/>
     <sheet name="FoFObE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>FoFObE Fraction of Forests Owned by Entity</t>
   </si>
@@ -29,18 +38,9 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>Fraction of Forest Owned</t>
-  </si>
-  <si>
     <t>government</t>
   </si>
   <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>consumers</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -123,16 +123,43 @@
   </si>
   <si>
     <t>Table: Input for Global Reporting Table 2</t>
+  </si>
+  <si>
+    <t>Fraction of Forest Owned (dimensionless)</t>
+  </si>
+  <si>
+    <t>nonenergy industries</t>
+  </si>
+  <si>
+    <t>labor and consumers</t>
+  </si>
+  <si>
+    <t>foreign entities</t>
+  </si>
+  <si>
+    <t>electricity suppliers</t>
+  </si>
+  <si>
+    <t>coal suppliers</t>
+  </si>
+  <si>
+    <t>natural gas and petroleum suppliers</t>
+  </si>
+  <si>
+    <t>biomass and biofuel suppliers</t>
+  </si>
+  <si>
+    <t>other energy suppliers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +171,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,10 +207,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -184,8 +220,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,11 +563,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -551,49 +593,52 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
-        <v>2005</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>31</v>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" location="P587_26537" xr:uid="{BED49F6A-41C2-4620-8543-2B2BCC77744D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,18 +649,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>76843.7</v>
@@ -623,7 +668,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1077.932</v>
@@ -631,12 +676,12 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>6388.31</v>
@@ -644,23 +689,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>3179.51</v>
+        <v>3170.51</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>7885.92</v>
+        <v>785.92</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>12344.74</v>
@@ -668,12 +713,12 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1077.932</v>
@@ -681,7 +726,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>12344.74</v>
@@ -689,7 +734,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>13422.672</v>
@@ -697,18 +742,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>66475</v>
@@ -720,7 +765,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>1078</v>
@@ -732,7 +777,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -740,7 +785,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <f>SUM(B19:B21)</f>
@@ -749,22 +794,22 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -773,50 +818,98 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2" s="3">
         <f>Data!C19</f>
         <v>0.98404215948958595</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3">
         <f>Data!C20</f>
         <v>1.5957840510414045E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
+        <v>33</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="8">
         <v>0</v>
       </c>
     </row>
